--- a/sheets/estimate_aero_drag.xlsx
+++ b/sheets/estimate_aero_drag.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E785C9F0-7187-F242-9641-39A1B9DA0247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300457BA-6375-464A-BD4A-E71D5171561D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{5EC0E62E-FE45-5247-ADB4-6FC5840AA93C}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{5EC0E62E-FE45-5247-ADB4-6FC5840AA93C}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
-    <sheet name="lift_cruise" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="lift_cruise" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>Sref</t>
   </si>
@@ -262,6 +263,30 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Helicopter</t>
+  </si>
+  <si>
+    <t>Multirotor</t>
+  </si>
+  <si>
+    <t>Tiltrotor</t>
+  </si>
+  <si>
+    <t>Tiltwing</t>
+  </si>
+  <si>
+    <t>Lift+Cruise</t>
+  </si>
+  <si>
+    <t>MTOW (lb)</t>
+  </si>
+  <si>
+    <t>f_e (ft2)</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016BCE7-ACBF-7C4C-98A2-383093A25355}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3955,6 +3980,378 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284DF619-CEC2-EE42-A965-F9D27CDC865C}">
+  <dimension ref="A2:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3269</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2864</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3858</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4399</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3863</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B4/(B3/1000)^(2/3)</f>
+        <v>2.9964059801593814</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4/(C3/1000)^(2/3)</f>
+        <v>12.842544768355891</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D4/(D3/1000)^(2/3)</f>
+        <v>1.9106877053162785</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E4/(E3/1000)^(2/3)</f>
+        <v>1.9368710251165047</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F4/(F3/1000)^(2/3)</f>
+        <v>6.4176192627323809</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C26355C-190F-DE43-B836-7F66296BD012}">
   <dimension ref="B2:V40"/>
   <sheetViews>
